--- a/Arad.Portal.UI.Shop.Dashboard/wwwroot/assets/fa-IR_ProductImportTemplate.xlsx
+++ b/Arad.Portal.UI.Shop.Dashboard/wwwroot/assets/fa-IR_ProductImportTemplate.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AradProject\Arad.Portal\Arad.Portal.UI.Shop.Dashboard\wwwroot\assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\AradProject\arad.portal\Arad.Portal.UI.Shop.Dashboard\wwwroot\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FAB5413-B8AF-4F8B-AB5C-9370D3E99CBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31BD586E-E3F3-4DC9-A3EE-68B714313BBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{AED6CAE3-E57C-4EC2-8394-5C44B3CCB954}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11385" xr2:uid="{AED6CAE3-E57C-4EC2-8394-5C44B3CCB954}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,12 +25,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>کد انحصاری</t>
-  </si>
-  <si>
-    <t>موجودی</t>
   </si>
   <si>
     <t>واحد محصول</t>
@@ -436,29 +433,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0D6A326-B59C-41F6-B1EC-57D3511792A6}">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.21875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.21875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.21875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.44140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="23.33203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="17.21875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="19.44140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="22" style="1" customWidth="1"/>
-    <col min="9" max="9" width="18.88671875" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="21.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="23.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="22" style="1" customWidth="1"/>
+    <col min="8" max="8" width="18.85546875" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="37.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -470,10 +466,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>6</v>
@@ -481,23 +477,16 @@
       <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>8</v>
-      </c>
     </row>
   </sheetData>
-  <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576" xr:uid="{4F1652DE-3C97-49CD-AE3C-9FEAABAA3EB8}">
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576" xr:uid="{4F1652DE-3C97-49CD-AE3C-9FEAABAA3EB8}">
       <formula1>"عدد,کیلوگرم,بسته دوازده تایی,بسته سه تایی,بسته شش تایی"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576 E1:E1048576" xr:uid="{A3C123B8-7662-4FB5-9348-A4B99FF05B2E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576 D1:D1048576" xr:uid="{A3C123B8-7662-4FB5-9348-A4B99FF05B2E}">
       <formula1>"بله,خیر"</formula1>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576" xr:uid="{9F5F4F63-ED86-4EA0-AC06-3BF52B89D1E6}">
-      <formula1>0</formula1>
-      <formula2>1000000</formula2>
-    </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I1048576" xr:uid="{AA742ABE-8B5A-4FCF-A2F0-9FE188C770C2}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H1048576" xr:uid="{AA742ABE-8B5A-4FCF-A2F0-9FE188C770C2}">
       <formula1>0</formula1>
       <formula2>99999999999999</formula2>
     </dataValidation>
